--- a/Map_PSO-C1.xlsx
+++ b/Map_PSO-C1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncd2763\Documents\Data\PSO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://whitecliffecollege-my.sharepoint.com/personal/sanaa_whitecliffe_ac_nz/Documents/Documents/Research/Data-NoV2023/PSO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5600DD62-513F-4EE4-B486-F5296276010A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{5600DD62-513F-4EE4-B486-F5296276010A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66321A3E-405F-4901-9267-6FDB5E8BB55A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Average </t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>R10</t>
+  </si>
+  <si>
+    <t>Avarage</t>
   </si>
 </sst>
 </file>
@@ -1755,6 +1758,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2020,13 +2027,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>9</v>
       </c>
@@ -2058,7 +2065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>1</v>
       </c>
@@ -2093,7 +2100,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>2</v>
       </c>
@@ -2128,7 +2135,7 @@
         <v>732.5</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>3</v>
       </c>
@@ -2163,7 +2170,7 @@
         <v>732.5</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>4</v>
       </c>
@@ -2198,7 +2205,7 @@
         <v>882.49999999999898</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>5</v>
       </c>
@@ -2233,7 +2240,7 @@
         <v>882.49999999999898</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>6</v>
       </c>
@@ -2268,7 +2275,7 @@
         <v>882.49999999999898</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>7</v>
       </c>
@@ -2303,7 +2310,7 @@
         <v>882.49999999999898</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>8</v>
       </c>
@@ -2338,7 +2345,7 @@
         <v>932.49999999999898</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>9</v>
       </c>
@@ -2373,7 +2380,7 @@
         <v>932.49999999999898</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>10</v>
       </c>
@@ -2408,7 +2415,7 @@
         <v>932.49999999999898</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>11</v>
       </c>
@@ -2443,7 +2450,7 @@
         <v>932.49999999999898</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>12</v>
       </c>
@@ -2478,7 +2485,7 @@
         <v>932.49999999999898</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>13</v>
       </c>
@@ -2513,7 +2520,7 @@
         <v>932.49999999999898</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>14</v>
       </c>
@@ -2548,7 +2555,7 @@
         <v>932.49999999999898</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>15</v>
       </c>
@@ -2583,7 +2590,7 @@
         <v>932.49999999999898</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>16</v>
       </c>
@@ -2618,7 +2625,7 @@
         <v>932.49999999999898</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>17</v>
       </c>
@@ -2653,7 +2660,7 @@
         <v>932.49999999999898</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>18</v>
       </c>
@@ -2688,7 +2695,7 @@
         <v>932.49999999999898</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>19</v>
       </c>
@@ -2723,7 +2730,7 @@
         <v>932.49999999999898</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>20</v>
       </c>
@@ -2758,7 +2765,7 @@
         <v>932.49999999999898</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>21</v>
       </c>
@@ -2793,7 +2800,7 @@
         <v>932.49999999999898</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>22</v>
       </c>
@@ -2828,7 +2835,7 @@
         <v>932.49999999999898</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>23</v>
       </c>
@@ -2863,7 +2870,7 @@
         <v>932.49999999999898</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>24</v>
       </c>
@@ -2898,7 +2905,7 @@
         <v>932.49999999999898</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>25</v>
       </c>
@@ -2933,7 +2940,7 @@
         <v>932.49999999999898</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>26</v>
       </c>
@@ -2968,7 +2975,7 @@
         <v>932.49999999999898</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>27</v>
       </c>
@@ -3003,7 +3010,7 @@
         <v>932.49999999999898</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>28</v>
       </c>
@@ -3038,7 +3045,7 @@
         <v>932.49999999999898</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>29</v>
       </c>
@@ -3073,7 +3080,7 @@
         <v>932.49999999999898</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>30</v>
       </c>
@@ -3108,7 +3115,7 @@
         <v>932.49999999999898</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>31</v>
       </c>
@@ -3143,7 +3150,7 @@
         <v>1032.5</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>32</v>
       </c>
@@ -3178,7 +3185,7 @@
         <v>1032.5</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>33</v>
       </c>
@@ -3213,7 +3220,7 @@
         <v>1032.5</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>34</v>
       </c>
@@ -3248,7 +3255,7 @@
         <v>1032.5</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>35</v>
       </c>
@@ -3283,7 +3290,7 @@
         <v>1032.5</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>36</v>
       </c>
@@ -3318,7 +3325,7 @@
         <v>1032.5</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>37</v>
       </c>
@@ -3353,7 +3360,7 @@
         <v>1032.5</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>38</v>
       </c>
@@ -3388,7 +3395,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>39</v>
       </c>
@@ -3423,7 +3430,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>40</v>
       </c>
@@ -3458,7 +3465,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>41</v>
       </c>
@@ -3493,7 +3500,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>42</v>
       </c>
@@ -3528,7 +3535,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>43</v>
       </c>
@@ -3563,7 +3570,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>44</v>
       </c>
@@ -3598,7 +3605,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>45</v>
       </c>
@@ -3633,7 +3640,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>46</v>
       </c>
@@ -3668,7 +3675,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>47</v>
       </c>
@@ -3703,7 +3710,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>48</v>
       </c>
@@ -3738,7 +3745,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>49</v>
       </c>
@@ -3773,7 +3780,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>50</v>
       </c>
@@ -3808,7 +3815,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>51</v>
       </c>
@@ -3843,7 +3850,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>52</v>
       </c>
@@ -3878,7 +3885,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>53</v>
       </c>
@@ -3913,7 +3920,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>54</v>
       </c>
@@ -3948,7 +3955,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>55</v>
       </c>
@@ -3983,7 +3990,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>56</v>
       </c>
@@ -4018,7 +4025,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>57</v>
       </c>
@@ -4053,7 +4060,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>58</v>
       </c>
@@ -4088,7 +4095,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>59</v>
       </c>
@@ -4123,7 +4130,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>60</v>
       </c>
@@ -4158,7 +4165,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>61</v>
       </c>
@@ -4193,7 +4200,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>62</v>
       </c>
@@ -4228,7 +4235,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>63</v>
       </c>
@@ -4263,7 +4270,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>64</v>
       </c>
@@ -4298,7 +4305,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>65</v>
       </c>
@@ -4333,7 +4340,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>66</v>
       </c>
@@ -4368,7 +4375,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>67</v>
       </c>
@@ -4403,7 +4410,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>68</v>
       </c>
@@ -4438,7 +4445,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>69</v>
       </c>
@@ -4473,7 +4480,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>70</v>
       </c>
@@ -4508,7 +4515,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>71</v>
       </c>
@@ -4543,7 +4550,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>72</v>
       </c>
@@ -4578,7 +4585,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>73</v>
       </c>
@@ -4613,7 +4620,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>74</v>
       </c>
@@ -4648,7 +4655,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>75</v>
       </c>
@@ -4683,7 +4690,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>76</v>
       </c>
@@ -4718,7 +4725,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>77</v>
       </c>
@@ -4753,7 +4760,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>78</v>
       </c>
@@ -4788,7 +4795,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>79</v>
       </c>
@@ -4823,7 +4830,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B81">
         <v>80</v>
       </c>
@@ -4858,7 +4865,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B82">
         <v>81</v>
       </c>
@@ -4893,7 +4900,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B83">
         <v>82</v>
       </c>
@@ -4928,7 +4935,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B84">
         <v>83</v>
       </c>
@@ -4963,7 +4970,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B85">
         <v>84</v>
       </c>
@@ -4998,7 +5005,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B86">
         <v>85</v>
       </c>
@@ -5033,7 +5040,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B87">
         <v>86</v>
       </c>
@@ -5068,7 +5075,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B88">
         <v>87</v>
       </c>
@@ -5103,7 +5110,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B89">
         <v>88</v>
       </c>
@@ -5138,7 +5145,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B90">
         <v>89</v>
       </c>
@@ -5173,7 +5180,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>90</v>
       </c>
@@ -5208,7 +5215,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>91</v>
       </c>
@@ -5243,7 +5250,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B93">
         <v>92</v>
       </c>
@@ -5278,7 +5285,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B94">
         <v>93</v>
       </c>
@@ -5313,7 +5320,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B95">
         <v>94</v>
       </c>
@@ -5348,7 +5355,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>95</v>
       </c>
@@ -5383,7 +5390,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>96</v>
       </c>
@@ -5418,7 +5425,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>97</v>
       </c>
@@ -5453,7 +5460,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>98</v>
       </c>
@@ -5488,7 +5495,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>99</v>
       </c>
@@ -5523,7 +5530,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B101">
         <v>100</v>
       </c>
@@ -5558,7 +5565,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B102">
         <v>101</v>
       </c>
@@ -5593,7 +5600,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B103">
         <v>102</v>
       </c>
@@ -5628,7 +5635,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B104">
         <v>103</v>
       </c>
@@ -5663,7 +5670,7 @@
         <v>2354.1</v>
       </c>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B105">
         <v>104</v>
       </c>
@@ -5698,7 +5705,7 @@
         <v>2354.1</v>
       </c>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B106">
         <v>105</v>
       </c>
@@ -5733,7 +5740,7 @@
         <v>2354.1</v>
       </c>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B107">
         <v>106</v>
       </c>
@@ -5768,7 +5775,7 @@
         <v>2354.1</v>
       </c>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B108">
         <v>107</v>
       </c>
@@ -5803,7 +5810,7 @@
         <v>2354.1</v>
       </c>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B109">
         <v>108</v>
       </c>
@@ -5838,7 +5845,7 @@
         <v>2354.1</v>
       </c>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B110">
         <v>109</v>
       </c>
@@ -5873,7 +5880,7 @@
         <v>2354.1</v>
       </c>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B111">
         <v>110</v>
       </c>
@@ -5908,7 +5915,7 @@
         <v>2354.1</v>
       </c>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B112">
         <v>111</v>
       </c>
@@ -5943,7 +5950,7 @@
         <v>2354.1</v>
       </c>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B113">
         <v>112</v>
       </c>
@@ -5978,7 +5985,7 @@
         <v>2354.1</v>
       </c>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B114">
         <v>113</v>
       </c>
@@ -6013,7 +6020,7 @@
         <v>2354.1</v>
       </c>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B115">
         <v>114</v>
       </c>
@@ -6048,7 +6055,7 @@
         <v>2354.1</v>
       </c>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B116">
         <v>115</v>
       </c>
@@ -6083,7 +6090,7 @@
         <v>2354.1</v>
       </c>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B117">
         <v>116</v>
       </c>
@@ -6118,7 +6125,7 @@
         <v>2354.1</v>
       </c>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B118">
         <v>117</v>
       </c>
@@ -6153,7 +6160,7 @@
         <v>2354.1</v>
       </c>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B119">
         <v>118</v>
       </c>
@@ -6188,7 +6195,7 @@
         <v>2354.1</v>
       </c>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B120">
         <v>119</v>
       </c>
@@ -6223,7 +6230,7 @@
         <v>2354.1</v>
       </c>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B121">
         <v>120</v>
       </c>
@@ -6258,7 +6265,7 @@
         <v>2354.1</v>
       </c>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B122">
         <v>121</v>
       </c>
@@ -6293,7 +6300,7 @@
         <v>2354.1</v>
       </c>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B123">
         <v>122</v>
       </c>
@@ -6328,7 +6335,7 @@
         <v>2354.1</v>
       </c>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B124">
         <v>123</v>
       </c>
@@ -6363,7 +6370,7 @@
         <v>2354.1</v>
       </c>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B125">
         <v>124</v>
       </c>
@@ -6398,7 +6405,7 @@
         <v>2354.1</v>
       </c>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B126">
         <v>125</v>
       </c>
@@ -6433,7 +6440,7 @@
         <v>2354.1</v>
       </c>
     </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B127">
         <v>126</v>
       </c>
@@ -6468,7 +6475,7 @@
         <v>2354.1</v>
       </c>
     </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B128">
         <v>127</v>
       </c>
@@ -6503,7 +6510,7 @@
         <v>2354.1</v>
       </c>
     </row>
-    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B129">
         <v>128</v>
       </c>
@@ -6538,7 +6545,7 @@
         <v>2354.1</v>
       </c>
     </row>
-    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B130">
         <v>129</v>
       </c>
@@ -6573,7 +6580,7 @@
         <v>2354.1</v>
       </c>
     </row>
-    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B131">
         <v>130</v>
       </c>
@@ -6608,7 +6615,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B132">
         <v>131</v>
       </c>
@@ -6643,7 +6650,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B133">
         <v>132</v>
       </c>
@@ -6678,7 +6685,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B134">
         <v>133</v>
       </c>
@@ -6713,7 +6720,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B135">
         <v>134</v>
       </c>
@@ -6748,7 +6755,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="136" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B136">
         <v>135</v>
       </c>
@@ -6783,7 +6790,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="137" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B137">
         <v>136</v>
       </c>
@@ -6818,7 +6825,7 @@
         <v>3021</v>
       </c>
     </row>
-    <row r="138" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B138">
         <v>137</v>
       </c>
@@ -6853,7 +6860,7 @@
         <v>3021</v>
       </c>
     </row>
-    <row r="139" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B139">
         <v>138</v>
       </c>
@@ -6888,7 +6895,7 @@
         <v>3021</v>
       </c>
     </row>
-    <row r="140" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B140">
         <v>139</v>
       </c>
@@ -6923,7 +6930,7 @@
         <v>3021</v>
       </c>
     </row>
-    <row r="141" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B141">
         <v>140</v>
       </c>
@@ -6958,7 +6965,7 @@
         <v>3021</v>
       </c>
     </row>
-    <row r="142" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B142">
         <v>141</v>
       </c>
@@ -6993,7 +7000,7 @@
         <v>3021</v>
       </c>
     </row>
-    <row r="143" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B143">
         <v>142</v>
       </c>
@@ -7028,7 +7035,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="144" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B144">
         <v>143</v>
       </c>
@@ -7063,7 +7070,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="145" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B145">
         <v>144</v>
       </c>
@@ -7098,7 +7105,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="146" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B146">
         <v>145</v>
       </c>
@@ -7133,7 +7140,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="147" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B147">
         <v>146</v>
       </c>
@@ -7168,7 +7175,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="148" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B148">
         <v>147</v>
       </c>
@@ -7203,7 +7210,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="149" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B149">
         <v>148</v>
       </c>
@@ -7238,7 +7245,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="150" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B150">
         <v>149</v>
       </c>
@@ -7273,7 +7280,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="151" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B151">
         <v>150</v>
       </c>
@@ -7308,7 +7315,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="152" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B152">
         <v>151</v>
       </c>
@@ -7343,7 +7350,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="153" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B153">
         <v>152</v>
       </c>
@@ -7378,7 +7385,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="154" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B154">
         <v>153</v>
       </c>
@@ -7413,7 +7420,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="155" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B155">
         <v>154</v>
       </c>
@@ -7448,7 +7455,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="156" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B156">
         <v>155</v>
       </c>
@@ -7483,7 +7490,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="157" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B157">
         <v>156</v>
       </c>
@@ -7518,7 +7525,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="158" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B158">
         <v>157</v>
       </c>
@@ -7553,7 +7560,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="159" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B159">
         <v>158</v>
       </c>
@@ -7588,7 +7595,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="160" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B160">
         <v>159</v>
       </c>
@@ -7623,7 +7630,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="161" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B161">
         <v>160</v>
       </c>
@@ -7658,7 +7665,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="162" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B162">
         <v>161</v>
       </c>
@@ -7693,7 +7700,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="163" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B163">
         <v>162</v>
       </c>
@@ -7728,7 +7735,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="164" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B164">
         <v>163</v>
       </c>
@@ -7763,7 +7770,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="165" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B165">
         <v>164</v>
       </c>
@@ -7798,7 +7805,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="166" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B166">
         <v>165</v>
       </c>
@@ -7833,7 +7840,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="167" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B167">
         <v>166</v>
       </c>
@@ -7868,7 +7875,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="168" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B168">
         <v>167</v>
       </c>
@@ -7903,7 +7910,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="169" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B169">
         <v>168</v>
       </c>
@@ -7938,7 +7945,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="170" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B170">
         <v>169</v>
       </c>
@@ -7973,7 +7980,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="171" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B171">
         <v>170</v>
       </c>
@@ -8008,7 +8015,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="172" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B172">
         <v>171</v>
       </c>
@@ -8043,7 +8050,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="173" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B173">
         <v>172</v>
       </c>
@@ -8078,7 +8085,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="174" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B174">
         <v>173</v>
       </c>
@@ -8113,7 +8120,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="175" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B175">
         <v>174</v>
       </c>
@@ -8148,7 +8155,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="176" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B176">
         <v>175</v>
       </c>
@@ -8183,7 +8190,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="177" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B177">
         <v>176</v>
       </c>
@@ -8218,7 +8225,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="178" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B178">
         <v>177</v>
       </c>
@@ -8253,7 +8260,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="179" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B179">
         <v>178</v>
       </c>
@@ -8288,7 +8295,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="180" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B180">
         <v>179</v>
       </c>
@@ -8323,7 +8330,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="181" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B181">
         <v>180</v>
       </c>
@@ -8358,7 +8365,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="182" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B182">
         <v>181</v>
       </c>
@@ -8393,7 +8400,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="183" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B183">
         <v>182</v>
       </c>
@@ -8428,7 +8435,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="184" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B184">
         <v>183</v>
       </c>
@@ -8463,7 +8470,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="185" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B185">
         <v>184</v>
       </c>
@@ -8498,7 +8505,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="186" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B186">
         <v>185</v>
       </c>
@@ -8533,7 +8540,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="187" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B187">
         <v>186</v>
       </c>
@@ -8568,7 +8575,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="188" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B188">
         <v>187</v>
       </c>
@@ -8603,7 +8610,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="189" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B189">
         <v>188</v>
       </c>
@@ -8638,7 +8645,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="190" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B190">
         <v>189</v>
       </c>
@@ -8673,7 +8680,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="191" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B191">
         <v>190</v>
       </c>
@@ -8708,7 +8715,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="192" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B192">
         <v>191</v>
       </c>
@@ -8743,7 +8750,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="193" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B193">
         <v>192</v>
       </c>
@@ -8778,7 +8785,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="194" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B194">
         <v>193</v>
       </c>
@@ -8813,7 +8820,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="195" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B195">
         <v>194</v>
       </c>
@@ -8848,7 +8855,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="196" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B196">
         <v>195</v>
       </c>
@@ -8883,7 +8890,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="197" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B197">
         <v>196</v>
       </c>
@@ -8918,7 +8925,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="198" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B198">
         <v>197</v>
       </c>
@@ -8953,7 +8960,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="199" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B199">
         <v>198</v>
       </c>
@@ -8988,7 +8995,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="200" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B200">
         <v>199</v>
       </c>
@@ -9023,7 +9030,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="201" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B201">
         <v>200</v>
       </c>
@@ -9058,7 +9065,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="202" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B202">
         <v>201</v>
       </c>
@@ -9073,21 +9080,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A13947-BA29-4FB8-B27E-36D7296AE2C5}">
   <dimension ref="A1:J202"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" customWidth="1"/>
+    <col min="7" max="7" width="20.453125" customWidth="1"/>
+    <col min="9" max="9" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -9107,7 +9114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>Data!B2</f>
         <v>1</v>
@@ -9137,7 +9144,7 @@
         <v>564.11400478981193</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>Data!B3</f>
         <v>2</v>
@@ -9167,7 +9174,7 @@
         <v>783.69693071748077</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>Data!B4</f>
         <v>3</v>
@@ -9197,7 +9204,7 @@
         <v>739.79381984712472</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <f>Data!B5</f>
         <v>4</v>
@@ -9227,7 +9234,7 @@
         <v>682.6133277112308</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>Data!B6</f>
         <v>5</v>
@@ -9257,7 +9264,7 @@
         <v>682.6133277112308</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <f>Data!B7</f>
         <v>6</v>
@@ -9287,7 +9294,7 @@
         <v>682.6133277112308</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <f>Data!B8</f>
         <v>7</v>
@@ -9317,7 +9324,7 @@
         <v>678.32249118026493</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <f>Data!B9</f>
         <v>8</v>
@@ -9347,7 +9354,7 @@
         <v>677.67937259518283</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <f>Data!B10</f>
         <v>9</v>
@@ -9377,7 +9384,7 @@
         <v>765.80851696034335</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <f>Data!B11</f>
         <v>10</v>
@@ -9407,7 +9414,7 @@
         <v>744.46523686469095</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <f>Data!B12</f>
         <v>11</v>
@@ -9437,7 +9444,7 @@
         <v>743.40414371995575</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <f>Data!B13</f>
         <v>12</v>
@@ -9467,7 +9474,7 @@
         <v>743.40414371995575</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <f>Data!B14</f>
         <v>13</v>
@@ -9497,7 +9504,7 @@
         <v>796.6247348030314</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <f>Data!B15</f>
         <v>14</v>
@@ -9527,7 +9534,7 @@
         <v>774.68428311151376</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <f>Data!B16</f>
         <v>15</v>
@@ -9557,7 +9564,7 @@
         <v>812.11211350404085</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <f>Data!B17</f>
         <v>16</v>
@@ -9587,7 +9594,7 @@
         <v>812.11211350404085</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <f>Data!B18</f>
         <v>17</v>
@@ -9617,7 +9624,7 @@
         <v>812.11211350404085</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <f>Data!B19</f>
         <v>18</v>
@@ -9647,7 +9654,7 @@
         <v>799.73906050661367</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <f>Data!B20</f>
         <v>19</v>
@@ -9677,7 +9684,7 @@
         <v>799.73906050661367</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <f>Data!B21</f>
         <v>20</v>
@@ -9707,7 +9714,7 @@
         <v>799.73906050661367</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
         <f>Data!B22</f>
         <v>21</v>
@@ -9737,7 +9744,7 @@
         <v>884.49175100732361</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
         <f>Data!B23</f>
         <v>22</v>
@@ -9767,7 +9774,7 @@
         <v>866.67540118835791</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
         <f>Data!B24</f>
         <v>23</v>
@@ -9797,7 +9804,7 @@
         <v>922.2117650653787</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <f>Data!B25</f>
         <v>24</v>
@@ -9827,7 +9834,7 @@
         <v>920.77070143711717</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <f>Data!B26</f>
         <v>25</v>
@@ -9857,7 +9864,7 @@
         <v>907.35413268469858</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
         <f>Data!B27</f>
         <v>26</v>
@@ -9887,7 +9894,7 @@
         <v>864.92747840498214</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
         <f>Data!B28</f>
         <v>27</v>
@@ -9917,7 +9924,7 @@
         <v>871.64380689591394</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
         <f>Data!B29</f>
         <v>28</v>
@@ -9947,7 +9954,7 @@
         <v>899.3893473351801</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
         <f>Data!B30</f>
         <v>29</v>
@@ -9977,7 +9984,7 @@
         <v>899.3893473351801</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
         <f>Data!B31</f>
         <v>30</v>
@@ -10007,7 +10014,7 @@
         <v>899.3893473351801</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32">
         <f>Data!B32</f>
         <v>31</v>
@@ -10036,8 +10043,15 @@
         <f>_xlfn.STDEV.P(Data!C32:L32)</f>
         <v>888.8785485655518</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32">
+        <f>B201</f>
+        <v>2799.8699999999981</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33">
         <f>Data!B33</f>
         <v>32</v>
@@ -10074,7 +10088,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34">
         <f>Data!B34</f>
         <v>33</v>
@@ -10111,7 +10125,7 @@
         <v>1128.3999999999901</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35">
         <f>Data!B35</f>
         <v>34</v>
@@ -10148,7 +10162,7 @@
         <v>1083.0924356212663</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36">
         <f>Data!B36</f>
         <v>35</v>
@@ -10178,7 +10192,7 @@
         <v>911.4697746497144</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37">
         <f>Data!B37</f>
         <v>36</v>
@@ -10208,7 +10222,7 @@
         <v>905.50124135751537</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38">
         <f>Data!B38</f>
         <v>37</v>
@@ -10238,7 +10252,7 @@
         <v>905.50124135751537</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39">
         <f>Data!B39</f>
         <v>38</v>
@@ -10268,7 +10282,7 @@
         <v>876.41954770532209</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40">
         <f>Data!B40</f>
         <v>39</v>
@@ -10298,7 +10312,7 @@
         <v>876.41954770532209</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41">
         <f>Data!B41</f>
         <v>40</v>
@@ -10328,7 +10342,7 @@
         <v>892.66744065189334</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42">
         <f>Data!B42</f>
         <v>41</v>
@@ -10358,7 +10372,7 @@
         <v>892.66744065189334</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43">
         <f>Data!B43</f>
         <v>42</v>
@@ -10388,7 +10402,7 @@
         <v>892.66744065189334</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44">
         <f>Data!B44</f>
         <v>43</v>
@@ -10418,7 +10432,7 @@
         <v>892.66744065189334</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45">
         <f>Data!B45</f>
         <v>44</v>
@@ -10448,7 +10462,7 @@
         <v>892.66744065189334</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46">
         <f>Data!B46</f>
         <v>45</v>
@@ -10478,7 +10492,7 @@
         <v>892.66744065189334</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47">
         <f>Data!B47</f>
         <v>46</v>
@@ -10508,7 +10522,7 @@
         <v>892.66744065189334</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48">
         <f>Data!B48</f>
         <v>47</v>
@@ -10538,7 +10552,7 @@
         <v>892.66744065189334</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <f>Data!B49</f>
         <v>48</v>
@@ -10568,7 +10582,7 @@
         <v>900.08561459452358</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
         <f>Data!B50</f>
         <v>49</v>
@@ -10598,7 +10612,7 @@
         <v>938.30446316747407</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
         <f>Data!B51</f>
         <v>50</v>
@@ -10628,7 +10642,7 @@
         <v>938.30446316747407</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
         <f>Data!B52</f>
         <v>51</v>
@@ -10658,7 +10672,7 @@
         <v>938.30446316747407</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
         <f>Data!B53</f>
         <v>52</v>
@@ -10688,7 +10702,7 @@
         <v>919.51127105653404</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
         <f>Data!B54</f>
         <v>53</v>
@@ -10718,7 +10732,7 @@
         <v>919.51127105653404</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55">
         <f>Data!B55</f>
         <v>54</v>
@@ -10748,7 +10762,7 @@
         <v>919.51127105653404</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56">
         <f>Data!B56</f>
         <v>55</v>
@@ -10778,7 +10792,7 @@
         <v>919.51127105653404</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57">
         <f>Data!B57</f>
         <v>56</v>
@@ -10808,7 +10822,7 @@
         <v>919.51127105653404</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58">
         <f>Data!B58</f>
         <v>57</v>
@@ -10838,7 +10852,7 @@
         <v>919.51127105653404</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59">
         <f>Data!B59</f>
         <v>58</v>
@@ -10868,7 +10882,7 @@
         <v>963.52567147949003</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60">
         <f>Data!B60</f>
         <v>59</v>
@@ -10898,7 +10912,7 @@
         <v>963.52567147949003</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61">
         <f>Data!B61</f>
         <v>60</v>
@@ -10928,7 +10942,7 @@
         <v>963.52567147949003</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62">
         <f>Data!B62</f>
         <v>61</v>
@@ -10958,7 +10972,7 @@
         <v>955.92154782701857</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63">
         <f>Data!B63</f>
         <v>62</v>
@@ -10988,7 +11002,7 @@
         <v>955.92154782701857</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64">
         <f>Data!B64</f>
         <v>63</v>
@@ -11018,7 +11032,7 @@
         <v>955.92154782701857</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65">
         <f>Data!B65</f>
         <v>64</v>
@@ -11048,7 +11062,7 @@
         <v>955.92154782701857</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66">
         <f>Data!B66</f>
         <v>65</v>
@@ -11078,7 +11092,7 @@
         <v>970.66884960835273</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67">
         <f>Data!B67</f>
         <v>66</v>
@@ -11108,7 +11122,7 @@
         <v>970.66884960835273</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68">
         <f>Data!B68</f>
         <v>67</v>
@@ -11138,7 +11152,7 @@
         <v>1015.4176911990469</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69">
         <f>Data!B69</f>
         <v>68</v>
@@ -11168,7 +11182,7 @@
         <v>1015.4176911990469</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70">
         <f>Data!B70</f>
         <v>69</v>
@@ -11198,7 +11212,7 @@
         <v>1015.4176911990469</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71">
         <f>Data!B71</f>
         <v>70</v>
@@ -11228,7 +11242,7 @@
         <v>1015.4176911990469</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72">
         <f>Data!B72</f>
         <v>71</v>
@@ -11258,7 +11272,7 @@
         <v>1015.4176911990469</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73">
         <f>Data!B73</f>
         <v>72</v>
@@ -11288,7 +11302,7 @@
         <v>1015.4176911990469</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74">
         <f>Data!B74</f>
         <v>73</v>
@@ -11318,7 +11332,7 @@
         <v>1015.4176911990469</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75">
         <f>Data!B75</f>
         <v>74</v>
@@ -11348,7 +11362,7 @@
         <v>1015.4176911990469</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76">
         <f>Data!B76</f>
         <v>75</v>
@@ -11378,7 +11392,7 @@
         <v>1015.4176911990469</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77">
         <f>Data!B77</f>
         <v>76</v>
@@ -11408,7 +11422,7 @@
         <v>1015.4176911990469</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78">
         <f>Data!B78</f>
         <v>77</v>
@@ -11438,7 +11452,7 @@
         <v>1013.0242393941039</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79">
         <f>Data!B79</f>
         <v>78</v>
@@ -11468,7 +11482,7 @@
         <v>1013.0242393941039</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80">
         <f>Data!B80</f>
         <v>79</v>
@@ -11498,7 +11512,7 @@
         <v>1056.6996761615871</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81">
         <f>Data!B81</f>
         <v>80</v>
@@ -11528,7 +11542,7 @@
         <v>1056.6996761615871</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82">
         <f>Data!B82</f>
         <v>81</v>
@@ -11558,7 +11572,7 @@
         <v>1056.6996761615871</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83">
         <f>Data!B83</f>
         <v>82</v>
@@ -11588,7 +11602,7 @@
         <v>1056.6996761615871</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84">
         <f>Data!B84</f>
         <v>83</v>
@@ -11618,7 +11632,7 @@
         <v>1056.6996761615871</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85">
         <f>Data!B85</f>
         <v>84</v>
@@ -11648,7 +11662,7 @@
         <v>1056.6996761615871</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86">
         <f>Data!B86</f>
         <v>85</v>
@@ -11678,7 +11692,7 @@
         <v>1056.6996761615871</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87">
         <f>Data!B87</f>
         <v>86</v>
@@ -11708,7 +11722,7 @@
         <v>1056.6996761615871</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88">
         <f>Data!B88</f>
         <v>87</v>
@@ -11738,7 +11752,7 @@
         <v>1056.6996761615871</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89">
         <f>Data!B89</f>
         <v>88</v>
@@ -11768,7 +11782,7 @@
         <v>1056.6996761615871</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90">
         <f>Data!B90</f>
         <v>89</v>
@@ -11798,7 +11812,7 @@
         <v>1056.6996761615871</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91">
         <f>Data!B91</f>
         <v>90</v>
@@ -11828,7 +11842,7 @@
         <v>1056.6996761615871</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92">
         <f>Data!B92</f>
         <v>91</v>
@@ -11858,7 +11872,7 @@
         <v>1056.6996761615871</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93">
         <f>Data!B93</f>
         <v>92</v>
@@ -11888,7 +11902,7 @@
         <v>1056.6996761615871</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94">
         <f>Data!B94</f>
         <v>93</v>
@@ -11918,7 +11932,7 @@
         <v>1056.6996761615871</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95">
         <f>Data!B95</f>
         <v>94</v>
@@ -11948,7 +11962,7 @@
         <v>1056.6996761615871</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96">
         <f>Data!B96</f>
         <v>95</v>
@@ -11978,7 +11992,7 @@
         <v>1056.6996761615871</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97">
         <f>Data!B97</f>
         <v>96</v>
@@ -12008,7 +12022,7 @@
         <v>1056.6996761615871</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98">
         <f>Data!B98</f>
         <v>97</v>
@@ -12038,7 +12052,7 @@
         <v>1056.6996761615871</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99">
         <f>Data!B99</f>
         <v>98</v>
@@ -12068,7 +12082,7 @@
         <v>1056.6996761615871</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100">
         <f>Data!B100</f>
         <v>99</v>
@@ -12098,7 +12112,7 @@
         <v>1056.6996761615871</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101">
         <f>Data!B101</f>
         <v>100</v>
@@ -12128,7 +12142,7 @@
         <v>1056.6996761615871</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102">
         <f>Data!B102</f>
         <v>101</v>
@@ -12158,7 +12172,7 @@
         <v>1060.3180341765403</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103">
         <f>Data!B103</f>
         <v>102</v>
@@ -12188,7 +12202,7 @@
         <v>1004.8076076543231</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104">
         <f>Data!B104</f>
         <v>103</v>
@@ -12218,7 +12232,7 @@
         <v>1004.6086822738516</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105">
         <f>Data!B105</f>
         <v>104</v>
@@ -12248,7 +12262,7 @@
         <v>1004.6086822738516</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106">
         <f>Data!B106</f>
         <v>105</v>
@@ -12278,7 +12292,7 @@
         <v>1005.0541898325705</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107">
         <f>Data!B107</f>
         <v>106</v>
@@ -12308,7 +12322,7 @@
         <v>1020.056079095657</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108">
         <f>Data!B108</f>
         <v>107</v>
@@ -12338,7 +12352,7 @@
         <v>1020.056079095657</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109">
         <f>Data!B109</f>
         <v>108</v>
@@ -12368,7 +12382,7 @@
         <v>1020.056079095657</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110">
         <f>Data!B110</f>
         <v>109</v>
@@ -12398,7 +12412,7 @@
         <v>1020.056079095657</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111">
         <f>Data!B111</f>
         <v>110</v>
@@ -12428,7 +12442,7 @@
         <v>1020.056079095657</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112">
         <f>Data!B112</f>
         <v>111</v>
@@ -12458,7 +12472,7 @@
         <v>1023.2808043249934</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113">
         <f>Data!B113</f>
         <v>112</v>
@@ -12488,7 +12502,7 @@
         <v>1023.2808043249934</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114">
         <f>Data!B114</f>
         <v>113</v>
@@ -12518,7 +12532,7 @@
         <v>1023.2808043249934</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115">
         <f>Data!B115</f>
         <v>114</v>
@@ -12548,7 +12562,7 @@
         <v>1023.2808043249934</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116">
         <f>Data!B116</f>
         <v>115</v>
@@ -12578,7 +12592,7 @@
         <v>1023.2808043249934</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117">
         <f>Data!B117</f>
         <v>116</v>
@@ -12608,7 +12622,7 @@
         <v>1030.6887621876961</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118">
         <f>Data!B118</f>
         <v>117</v>
@@ -12638,7 +12652,7 @@
         <v>1030.6887621876961</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119">
         <f>Data!B119</f>
         <v>118</v>
@@ -12668,7 +12682,7 @@
         <v>1024.7800664044971</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120">
         <f>Data!B120</f>
         <v>119</v>
@@ -12698,7 +12712,7 @@
         <v>1024.7800664044971</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121">
         <f>Data!B121</f>
         <v>120</v>
@@ -12728,7 +12742,7 @@
         <v>1024.7800664044971</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122">
         <f>Data!B122</f>
         <v>121</v>
@@ -12758,7 +12772,7 @@
         <v>1025.6846387169915</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123">
         <f>Data!B123</f>
         <v>122</v>
@@ -12788,7 +12802,7 @@
         <v>1028.9797881882832</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124">
         <f>Data!B124</f>
         <v>123</v>
@@ -12818,7 +12832,7 @@
         <v>1028.9797881882832</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125">
         <f>Data!B125</f>
         <v>124</v>
@@ -12848,7 +12862,7 @@
         <v>1028.9797881882832</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126">
         <f>Data!B126</f>
         <v>125</v>
@@ -12878,7 +12892,7 @@
         <v>1020.9870843453436</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127">
         <f>Data!B127</f>
         <v>126</v>
@@ -12908,7 +12922,7 @@
         <v>1020.9870843453436</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128">
         <f>Data!B128</f>
         <v>127</v>
@@ -12938,7 +12952,7 @@
         <v>1020.9870843453436</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129">
         <f>Data!B129</f>
         <v>128</v>
@@ -12968,7 +12982,7 @@
         <v>1020.9870843453436</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130">
         <f>Data!B130</f>
         <v>129</v>
@@ -12998,7 +13012,7 @@
         <v>1020.9870843453436</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131">
         <f>Data!B131</f>
         <v>130</v>
@@ -13028,7 +13042,7 @@
         <v>1022.4198257565258</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132">
         <f>Data!B132</f>
         <v>131</v>
@@ -13058,7 +13072,7 @@
         <v>1027.3494459530339</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133">
         <f>Data!B133</f>
         <v>132</v>
@@ -13088,7 +13102,7 @@
         <v>1027.3494459530339</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134">
         <f>Data!B134</f>
         <v>133</v>
@@ -13118,7 +13132,7 @@
         <v>1027.3494459530339</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135">
         <f>Data!B135</f>
         <v>134</v>
@@ -13148,7 +13162,7 @@
         <v>1027.3494459530339</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136">
         <f>Data!B136</f>
         <v>135</v>
@@ -13178,7 +13192,7 @@
         <v>1027.3494459530339</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137">
         <f>Data!B137</f>
         <v>136</v>
@@ -13208,7 +13222,7 @@
         <v>1037.2568033519979</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138">
         <f>Data!B138</f>
         <v>137</v>
@@ -13238,7 +13252,7 @@
         <v>1037.2568033519979</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139">
         <f>Data!B139</f>
         <v>138</v>
@@ -13268,7 +13282,7 @@
         <v>1037.2568033519979</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140">
         <f>Data!B140</f>
         <v>139</v>
@@ -13298,7 +13312,7 @@
         <v>1037.2568033519979</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141">
         <f>Data!B141</f>
         <v>140</v>
@@ -13328,7 +13342,7 @@
         <v>1037.2568033519979</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142">
         <f>Data!B142</f>
         <v>141</v>
@@ -13358,7 +13372,7 @@
         <v>1037.2568033519979</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143">
         <f>Data!B143</f>
         <v>142</v>
@@ -13388,7 +13402,7 @@
         <v>1066.9610190161611</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144">
         <f>Data!B144</f>
         <v>143</v>
@@ -13418,7 +13432,7 @@
         <v>1066.9610190161611</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145">
         <f>Data!B145</f>
         <v>144</v>
@@ -13448,7 +13462,7 @@
         <v>1070.9392420207628</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146">
         <f>Data!B146</f>
         <v>145</v>
@@ -13478,7 +13492,7 @@
         <v>1070.9392420207628</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147">
         <f>Data!B147</f>
         <v>146</v>
@@ -13508,7 +13522,7 @@
         <v>1131.0993838297345</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148">
         <f>Data!B148</f>
         <v>147</v>
@@ -13538,7 +13552,7 @@
         <v>1131.0993838297345</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149">
         <f>Data!B149</f>
         <v>148</v>
@@ -13568,7 +13582,7 @@
         <v>1131.0993838297345</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150">
         <f>Data!B150</f>
         <v>149</v>
@@ -13598,7 +13612,7 @@
         <v>1131.0993838297345</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151">
         <f>Data!B151</f>
         <v>150</v>
@@ -13628,7 +13642,7 @@
         <v>1131.0993838297345</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152">
         <f>Data!B152</f>
         <v>151</v>
@@ -13658,7 +13672,7 @@
         <v>1131.0993838297345</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153">
         <f>Data!B153</f>
         <v>152</v>
@@ -13688,7 +13702,7 @@
         <v>1131.0993838297345</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154">
         <f>Data!B154</f>
         <v>153</v>
@@ -13718,7 +13732,7 @@
         <v>1131.0993838297345</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155">
         <f>Data!B155</f>
         <v>154</v>
@@ -13748,7 +13762,7 @@
         <v>1131.0993838297345</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156">
         <f>Data!B156</f>
         <v>155</v>
@@ -13778,7 +13792,7 @@
         <v>1131.0993838297345</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157">
         <f>Data!B157</f>
         <v>156</v>
@@ -13808,7 +13822,7 @@
         <v>1131.0993838297345</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158">
         <f>Data!B158</f>
         <v>157</v>
@@ -13838,7 +13852,7 @@
         <v>1135.7648788811903</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159">
         <f>Data!B159</f>
         <v>158</v>
@@ -13868,7 +13882,7 @@
         <v>1135.7648788811903</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160">
         <f>Data!B160</f>
         <v>159</v>
@@ -13898,7 +13912,7 @@
         <v>1135.7648788811903</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161">
         <f>Data!B161</f>
         <v>160</v>
@@ -13928,7 +13942,7 @@
         <v>1135.7648788811903</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162">
         <f>Data!B162</f>
         <v>161</v>
@@ -13958,7 +13972,7 @@
         <v>1135.7648788811903</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163">
         <f>Data!B163</f>
         <v>162</v>
@@ -13988,7 +14002,7 @@
         <v>1135.7648788811903</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164">
         <f>Data!B164</f>
         <v>163</v>
@@ -14018,7 +14032,7 @@
         <v>1114.1959433151803</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165">
         <f>Data!B165</f>
         <v>164</v>
@@ -14048,7 +14062,7 @@
         <v>1114.1959433151803</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166">
         <f>Data!B166</f>
         <v>165</v>
@@ -14078,7 +14092,7 @@
         <v>1114.1959433151803</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167">
         <f>Data!B167</f>
         <v>166</v>
@@ -14108,7 +14122,7 @@
         <v>1114.1959433151803</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168">
         <f>Data!B168</f>
         <v>167</v>
@@ -14138,7 +14152,7 @@
         <v>1114.1959433151803</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169">
         <f>Data!B169</f>
         <v>168</v>
@@ -14168,7 +14182,7 @@
         <v>1110.0354805590716</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170">
         <f>Data!B170</f>
         <v>169</v>
@@ -14198,7 +14212,7 @@
         <v>1110.0354805590716</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171">
         <f>Data!B171</f>
         <v>170</v>
@@ -14228,7 +14242,7 @@
         <v>1110.0354805590716</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172">
         <f>Data!B172</f>
         <v>171</v>
@@ -14258,7 +14272,7 @@
         <v>1101.8595482637559</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173">
         <f>Data!B173</f>
         <v>172</v>
@@ -14288,7 +14302,7 @@
         <v>1101.8595482637559</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174">
         <f>Data!B174</f>
         <v>173</v>
@@ -14318,7 +14332,7 @@
         <v>1093.8805419697387</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175">
         <f>Data!B175</f>
         <v>174</v>
@@ -14348,7 +14362,7 @@
         <v>1093.8805419697387</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176">
         <f>Data!B176</f>
         <v>175</v>
@@ -14378,7 +14392,7 @@
         <v>1093.8805419697387</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177">
         <f>Data!B177</f>
         <v>176</v>
@@ -14408,7 +14422,7 @@
         <v>1093.8805419697387</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178">
         <f>Data!B178</f>
         <v>177</v>
@@ -14438,7 +14452,7 @@
         <v>1093.8805419697387</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179">
         <f>Data!B179</f>
         <v>178</v>
@@ -14468,7 +14482,7 @@
         <v>1093.8805419697387</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180">
         <f>Data!B180</f>
         <v>179</v>
@@ -14498,7 +14512,7 @@
         <v>1093.8805419697387</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181">
         <f>Data!B181</f>
         <v>180</v>
@@ -14528,7 +14542,7 @@
         <v>1093.8805419697387</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182">
         <f>Data!B182</f>
         <v>181</v>
@@ -14558,7 +14572,7 @@
         <v>1096.1968947684575</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183">
         <f>Data!B183</f>
         <v>182</v>
@@ -14588,7 +14602,7 @@
         <v>1096.1968947684575</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184">
         <f>Data!B184</f>
         <v>183</v>
@@ -14618,7 +14632,7 @@
         <v>1096.1968947684575</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185">
         <f>Data!B185</f>
         <v>184</v>
@@ -14648,7 +14662,7 @@
         <v>1058.9436774918709</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186">
         <f>Data!B186</f>
         <v>185</v>
@@ -14678,7 +14692,7 @@
         <v>1058.9436774918709</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187">
         <f>Data!B187</f>
         <v>186</v>
@@ -14708,7 +14722,7 @@
         <v>1058.9436774918709</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188">
         <f>Data!B188</f>
         <v>187</v>
@@ -14738,7 +14752,7 @@
         <v>1058.9436774918709</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189">
         <f>Data!B189</f>
         <v>188</v>
@@ -14768,7 +14782,7 @@
         <v>1058.9436774918709</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190">
         <f>Data!B190</f>
         <v>189</v>
@@ -14798,7 +14812,7 @@
         <v>1058.9436774918709</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191">
         <f>Data!B191</f>
         <v>190</v>
@@ -14828,7 +14842,7 @@
         <v>1058.9436774918709</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192">
         <f>Data!B192</f>
         <v>191</v>
@@ -14858,7 +14872,7 @@
         <v>1062.4239455603431</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193">
         <f>Data!B193</f>
         <v>192</v>
@@ -14888,7 +14902,7 @@
         <v>1062.4239455603431</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194">
         <f>Data!B194</f>
         <v>193</v>
@@ -14918,7 +14932,7 @@
         <v>1083.0924356212663</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195">
         <f>Data!B195</f>
         <v>194</v>
@@ -14948,7 +14962,7 @@
         <v>1083.0924356212663</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196">
         <f>Data!B196</f>
         <v>195</v>
@@ -14978,7 +14992,7 @@
         <v>1083.0924356212663</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197">
         <f>Data!B197</f>
         <v>196</v>
@@ -15008,7 +15022,7 @@
         <v>1083.0924356212663</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198">
         <f>Data!B198</f>
         <v>197</v>
@@ -15038,7 +15052,7 @@
         <v>1083.0924356212663</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199">
         <f>Data!B199</f>
         <v>198</v>
@@ -15068,7 +15082,7 @@
         <v>1083.0924356212663</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200">
         <f>Data!B200</f>
         <v>199</v>
@@ -15098,7 +15112,7 @@
         <v>1083.0924356212663</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201">
         <f>Data!B201</f>
         <v>200</v>
@@ -15128,7 +15142,7 @@
         <v>1083.0924356212663</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202">
         <f>Data!B202</f>
         <v>201</v>
